--- a/wapiti/wavsep/default/wavsep_testcases_wapiti.xlsx
+++ b/wapiti/wavsep/default/wavsep_testcases_wapiti.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ranakhalil/Desktop/git/Thesis/results/wapiti/wavsep/default/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ranakhalil/Desktop/git/Thesis-Test-Results/wapiti/wavsep/default/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7B0EB3-3D87-6D44-8456-B4054610A9DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDE718D-BA25-7D49-ACA2-C9565A67EDE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" activeTab="7" xr2:uid="{DBBE8B25-2378-894E-BCFB-B20D8924CC7D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="7" xr2:uid="{DBBE8B25-2378-894E-BCFB-B20D8924CC7D}"/>
   </bookViews>
   <sheets>
     <sheet name="LFI" sheetId="1" r:id="rId1"/>
@@ -17704,8 +17704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D9685C-8C7E-1145-B2DB-8CDE02EBDC02}">
   <dimension ref="A1:M122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J101" sqref="J101"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
